--- a/참고자료/Balance.xlsx
+++ b/참고자료/Balance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\참고자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\java_works\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="1" r:id="rId1"/>
@@ -354,18 +354,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -394,11 +393,11 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E2">
         <f>E1+C2-D2</f>
-        <v>95000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -411,9 +410,12 @@
       <c r="C3">
         <v>12000</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E10" si="0">E2+C3-D3</f>
-        <v>107000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -428,7 +430,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>205000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,11 +444,11 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>193000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -461,7 +463,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>282000</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -476,7 +478,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>294000</v>
+        <v>246000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -491,7 +493,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>394000</v>
+        <v>346000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -509,7 +511,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>389000</v>
+        <v>341000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -523,19 +525,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>379000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+        <v>321000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>